--- a/Arquivo de Validação Cruzada - Modelo - Regressão.xlsx
+++ b/Arquivo de Validação Cruzada - Modelo - Regressão.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CEFET - atual\2023-1\_Técnicas de Aprendizado de Máquina\aula 13\Programas - completo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Desktop\regressao machine learning git\Diamond_Price_Prediction-Machine_Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BD4915-5FED-4F8B-BF4A-460CD4303857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89443D32-2282-436B-B178-FA198E1BD207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{48A4673C-AF1C-4D10-A0CA-0CDC5F3521EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{48A4673C-AF1C-4D10-A0CA-0CDC5F3521EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Validação Cruzada" sheetId="6" r:id="rId1"/>
@@ -5371,24 +5371,24 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" customWidth="1"/>
-    <col min="11" max="11" width="9.90625" customWidth="1"/>
-    <col min="12" max="12" width="9.36328125" customWidth="1"/>
-    <col min="13" max="13" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
@@ -5398,8 +5398,8 @@
       <c r="E1" s="12"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>6</v>
@@ -5416,7 +5416,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>4139722078.6064701</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>2118607220.8763199</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>3531202523.4696002</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>2588557308.44837</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>6358404024.68927</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>86195658.468999997</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B3:F3"/>
@@ -5678,6 +5678,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="558ff6ea-e402-46b9-9d85-71d4e65262a0" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e76643e6-ac93-4d30-94d4-078355e67670">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100FD3CAA4E66438E4EBFBF209A49AF80D7" ma:contentTypeVersion="8" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="88731c56c97c72f904fdcb604469bb9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e76643e6-ac93-4d30-94d4-078355e67670" xmlns:ns3="558ff6ea-e402-46b9-9d85-71d4e65262a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="489b5ea74f71d0bae8170fcf5248e486" ns2:_="" ns3:_="">
     <xsd:import namespace="e76643e6-ac93-4d30-94d4-078355e67670"/>
@@ -5854,34 +5874,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="558ff6ea-e402-46b9-9d85-71d4e65262a0" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e76643e6-ac93-4d30-94d4-078355e67670">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74A15E7C-B71B-44E0-9C95-50D911F16AE7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65C8048A-9302-425E-9B45-5BB4E9AB6FAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="558ff6ea-e402-46b9-9d85-71d4e65262a0"/>
+    <ds:schemaRef ds:uri="e76643e6-ac93-4d30-94d4-078355e67670"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D447E844-1DAB-4B6D-A689-84CF845A5200}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D447E844-1DAB-4B6D-A689-84CF845A5200}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65C8048A-9302-425E-9B45-5BB4E9AB6FAA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74A15E7C-B71B-44E0-9C95-50D911F16AE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e76643e6-ac93-4d30-94d4-078355e67670"/>
+    <ds:schemaRef ds:uri="558ff6ea-e402-46b9-9d85-71d4e65262a0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>